--- a/documents/Others/Analyze Survey.xlsx
+++ b/documents/Others/Analyze Survey.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PFM\documents\Others\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,11 +47,6 @@
     <t>Điều bạn quan tâm nhất khi xem một bản báo cáo chi tiêu?</t>
   </si>
   <si>
-    <t>1. Có biểu đồ hình cột so sánh schedule với chi phí (Trong 1 tháng hoặc tuần)
-2. Có 1 báo cáo nhỏ bên dưới khi view deatail chi tiêu để so sánh với schedule
-3. Biểu đồ hình tròn thể hiển % chi tiêu các khoản trong tuần/tháng và chú thích bảng màu ở dưới sẽ hiển thị thêm sự chênh lệch giữa thực tế và schedule</t>
-  </si>
-  <si>
     <t>Theo bạn phương pháp thể hiện nào là tốt nhất cho 1 báo cáo?</t>
   </si>
   <si>
@@ -192,6 +192,11 @@
       </rPr>
       <t xml:space="preserve"> (45.7%)</t>
     </r>
+  </si>
+  <si>
+    <t>1. Có biểu đồ hình cột so sánh schedule với chi phí (Trong 1 tháng hoặc tuần)
+2. Có 1 báo cáo nhỏ bên dưới khi view detail chi tiêu để so sánh với schedule
+3. Biểu đồ hình tròn thể hiển % chi tiêu các khoản trong tuần/tháng và chú thích bảng màu ở dưới sẽ hiển thị thêm sự chênh lệch giữa thực tế và schedule</t>
   </si>
 </sst>
 </file>
@@ -297,6 +302,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -344,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,7 +387,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
@@ -639,10 +647,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -650,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -664,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -678,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -692,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -706,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
